--- a/hardware/KiCAD/esp32-energymeter-V2/production/BOM-esp32-energymeter-V2.xlsx
+++ b/hardware/KiCAD/esp32-energymeter-V2/production/BOM-esp32-energymeter-V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Saad Imtiaz\Documents\GitHub\esp32-energymeter\hardware\KiCAD\esp32-energymeter-V2\production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C291821A-5538-45EB-9F9B-353689496DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8374F1-467C-4BFD-B62D-4859432FB4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE6C120F-DC36-4EB6-B3D7-DB831F3C207A}"/>
   </bookViews>
@@ -458,9 +458,6 @@
     <t>D6,D7</t>
   </si>
   <si>
-    <t>Step Down Voltage Transformer</t>
-  </si>
-  <si>
     <t>Navaris deurbeltransformator - 8V, 12V, 24V</t>
   </si>
   <si>
@@ -495,6 +492,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.poweruc.pl/products/split-core-current-transformer-sct013-rated-input-5a-100a </t>
+  </si>
+  <si>
+    <t>Options for Step Down Voltage Transformers</t>
   </si>
 </sst>
 </file>
@@ -1431,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DEEC5C-D6BA-419B-A6ED-838B9C484E91}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C33" s="13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="15"/>
@@ -2348,45 +2348,45 @@
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C34" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="15"/>
       <c r="F34" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" s="14" t="s">
         <v>143</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>144</v>
       </c>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="15"/>
       <c r="F35" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G35" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>147</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="15"/>
       <c r="F36" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C38" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="15"/>
@@ -2413,15 +2413,15 @@
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C39" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="15"/>
       <c r="F39" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G39" s="12" t="s">
         <v>152</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>153</v>
       </c>
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>

--- a/hardware/KiCAD/esp32-energymeter-V2/production/BOM-esp32-energymeter-V2.xlsx
+++ b/hardware/KiCAD/esp32-energymeter-V2/production/BOM-esp32-energymeter-V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Saad Imtiaz\Documents\GitHub\esp32-energymeter\hardware\KiCAD\esp32-energymeter-V2\production\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saad Imtiaz\Documents\GitHub\esp32-energymeter\hardware\KiCAD\esp32-energymeter-V2\production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8374F1-467C-4BFD-B62D-4859432FB4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2909B5AB-10A9-4C91-BA22-F996F7597A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AE6C120F-DC36-4EB6-B3D7-DB831F3C207A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AE6C120F-DC36-4EB6-B3D7-DB831F3C207A}"/>
   </bookViews>
   <sheets>
     <sheet name="mouser-bom-esp32-energymeter-V2" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="175">
   <si>
     <t>Date:</t>
   </si>
@@ -495,13 +495,76 @@
   </si>
   <si>
     <t>Options for Step Down Voltage Transformers</t>
+  </si>
+  <si>
+    <t>JP1</t>
+  </si>
+  <si>
+    <t>PinHeader_1x02_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>JUMPER</t>
+  </si>
+  <si>
+    <t>JP2</t>
+  </si>
+  <si>
+    <t>PinSocket_1x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Conn_01x06</t>
+  </si>
+  <si>
+    <t>JP3</t>
+  </si>
+  <si>
+    <t>PinSocket_1x04_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>OLED-A</t>
+  </si>
+  <si>
+    <t>JP4</t>
+  </si>
+  <si>
+    <t>OLED-B</t>
+  </si>
+  <si>
+    <t>JP5, JP6</t>
+  </si>
+  <si>
+    <t>PinSocket_1x08_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Conn_01x08</t>
+  </si>
+  <si>
+    <t>JP7</t>
+  </si>
+  <si>
+    <t>PinSocket_1x03_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Conn_01x03</t>
+  </si>
+  <si>
+    <t>PinHeader_1x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>PinHeader_1x04_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>PinHeader_1x08_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>PinHeader_1x03_P2.54mm_Vertical</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1019,7 +1082,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1053,6 +1116,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1429,13 +1496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DEEC5C-D6BA-419B-A6ED-838B9C484E91}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="4" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.8984375" style="1" customWidth="1"/>
@@ -1450,7 +1517,7 @@
     <col min="12" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1458,7 +1525,7 @@
         <v>45352.696527777778</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -1489,7 +1556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="28.5" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="9" t="s">
@@ -1519,7 +1586,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="10" t="s">
@@ -1549,7 +1616,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="10" t="s">
@@ -1579,7 +1646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="10" t="s">
@@ -1609,7 +1676,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="10" t="s">
@@ -1639,7 +1706,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="10" t="s">
@@ -1671,7 +1738,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="10" t="s">
@@ -1703,7 +1770,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="10" t="s">
@@ -1735,7 +1802,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="10" t="s">
@@ -1767,7 +1834,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="10" t="s">
@@ -1797,7 +1864,7 @@
       </c>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="10" t="s">
@@ -1829,7 +1896,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="10" t="s">
@@ -1861,7 +1928,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="10" t="s">
@@ -1889,7 +1956,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="10" t="s">
@@ -1919,7 +1986,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="10" t="s">
@@ -1949,7 +2016,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="10" t="s">
@@ -1979,7 +2046,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="10" t="s">
@@ -2011,7 +2078,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="10" t="s">
@@ -2041,7 +2108,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="10" t="s">
@@ -2071,7 +2138,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="10" t="s">
@@ -2101,7 +2168,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="10" t="s">
@@ -2131,7 +2198,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="10" t="s">
@@ -2161,7 +2228,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="10" t="s">
@@ -2191,7 +2258,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="10" t="s">
@@ -2221,7 +2288,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="10" t="s">
@@ -2249,7 +2316,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="10" t="s">
@@ -2279,7 +2346,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="10" t="s">
@@ -2309,7 +2376,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="10" t="s">
@@ -2335,103 +2402,250 @@
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C33" s="13" t="s">
+    <row r="32" spans="1:11">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" s="10">
+        <v>1</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="G33" s="10">
+        <v>1</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G34" s="10">
+        <v>1</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G35" s="10">
+        <v>1</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G36" s="10">
+        <v>2</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="C37" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" s="10">
+        <v>1</v>
+      </c>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="C39" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C34" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C36" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C38" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C39" s="14" t="s">
-        <v>150</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="15"/>
-      <c r="F39" s="14" t="s">
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="C40" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="C41" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="C42" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="C44" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="C45" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="G45" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="K39" s="12"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="K45" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G35" r:id="rId1" xr:uid="{645C27B8-C9A6-41CE-BEE3-5914CF5AFDF9}"/>
-    <hyperlink ref="G36" r:id="rId2" xr:uid="{44E13B2B-FC7B-49BD-9A29-DC832994037C}"/>
-    <hyperlink ref="G39" r:id="rId3" display="https://www.poweruc.pl/products/split-core-current-transformer-sct013-rated-input-5a-100a" xr:uid="{419F64EB-8F43-43A0-BD65-46ADB75C38AB}"/>
+    <hyperlink ref="G41" r:id="rId1" xr:uid="{645C27B8-C9A6-41CE-BEE3-5914CF5AFDF9}"/>
+    <hyperlink ref="G42" r:id="rId2" xr:uid="{44E13B2B-FC7B-49BD-9A29-DC832994037C}"/>
+    <hyperlink ref="G45" r:id="rId3" display="https://www.poweruc.pl/products/split-core-current-transformer-sct013-rated-input-5a-100a" xr:uid="{419F64EB-8F43-43A0-BD65-46ADB75C38AB}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
